--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3918.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3918.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.364688041434071</v>
+        <v>1.865412354469299</v>
       </c>
       <c r="B1">
-        <v>1.747748219478047</v>
+        <v>1.837787270545959</v>
       </c>
       <c r="C1">
-        <v>2.619511374400097</v>
+        <v>2.173841238021851</v>
       </c>
       <c r="D1">
-        <v>7.793727248339096</v>
+        <v>2.382610321044922</v>
       </c>
       <c r="E1">
-        <v>2.624235374275233</v>
+        <v>1.663984298706055</v>
       </c>
     </row>
   </sheetData>
